--- a/매출_검토_결과.xlsx
+++ b/매출_검토_결과.xlsx
@@ -44384,7 +44384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44410,17 +44410,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Remittances 파일명</t>
+          <t>파일명</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Remittances 행번호</t>
+          <t>행번호</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>비교 Remittances 가격</t>
+          <t>비교 가격</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>원가격</t>
         </is>
       </c>
     </row>
@@ -44433,10 +44438,8 @@
       <c r="B2" t="n">
         <v>346</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>202.0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>121014</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -44451,244 +44454,9 @@
           <t>403380.0</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sonia Mushime Simbi</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>18</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>564570</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>697410</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nicolas de Menibus</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>38</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>553500</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1195560</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lionel Baraffe</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>642060</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1195560</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lionel Baraffe</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>61</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>332100</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>619920</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Kobayashi Aimi</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>71</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>287820</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>575640</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Claire Cabrera</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>97</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1215000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>996300</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Benjamin Beaupère</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>105</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>287820</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>619920</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Aimi Kobayashi</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>111</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>287820</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>부킹PDF</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>575640</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>403380.0</t>
         </is>
       </c>
     </row>
